--- a/output/סטטוס בדידים.xlsx
+++ b/output/סטטוס בדידים.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\nofshonitjmeterci\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F7616B-6AB2-4C70-B666-CA38EDFE5D1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E607408D-D4AE-4A2C-A9E2-C25AEB749A5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="375" windowWidth="24165" windowHeight="13455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="סטטוס בדידים 11.4.19" sheetId="13" r:id="rId1"/>
+    <sheet name="סטטוס שבועי 11.27.19" sheetId="15" r:id="rId1"/>
+    <sheet name="סטטוס שבועי 11.4.19" sheetId="13" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -23,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="31">
   <si>
     <t>בקשה</t>
   </si>
@@ -84,6 +86,45 @@
   </si>
   <si>
     <t>הסטורית רכישות עבור משתמש קל (1-3רכישות)</t>
+  </si>
+  <si>
+    <t>רכישות</t>
+  </si>
+  <si>
+    <t>אחוזי שגיאה</t>
+  </si>
+  <si>
+    <t>רכישות שעה ראשונה</t>
+  </si>
+  <si>
+    <t>רכישות שעה שניה</t>
+  </si>
+  <si>
+    <t>רכישות שעה שלישית + רביעית</t>
+  </si>
+  <si>
+    <t>רכישות שעה חמישית</t>
+  </si>
+  <si>
+    <t>רכישות שעה שישית</t>
+  </si>
+  <si>
+    <t>אחוזי שגיאה %</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>No ProductsVar has been found in db with barcode : 305-11\u00a0\u00a0</t>
+  </si>
+  <si>
+    <t>exceptions</t>
+  </si>
+  <si>
+    <t>Any problem with Get_Available_Card_By_SerieID. (GetAvailableCardBySerieId) :</t>
+  </si>
+  <si>
+    <t>10 דקות</t>
   </si>
 </sst>
 </file>
@@ -165,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -198,6 +239,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,11 +519,1365 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977E8616-E52F-490D-8751-E38965C08A3F}">
+  <dimension ref="A1:K74"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="72.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1044</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1044</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1044</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1044</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1493</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1576</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1327</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1759</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>300</v>
+      </c>
+      <c r="C6" s="2">
+        <v>300</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2267</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2664</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1593</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5321</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3118</v>
+      </c>
+      <c r="C7" s="2">
+        <v>650</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1044</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1044</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1329</v>
+      </c>
+      <c r="G7" s="1">
+        <v>15762</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C8" s="2">
+        <v>600</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43334</v>
+      </c>
+      <c r="E8" s="1">
+        <v>95599</v>
+      </c>
+      <c r="F8" s="1">
+        <v>978</v>
+      </c>
+      <c r="G8" s="1">
+        <v>582006</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3202</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3202</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3202</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3202</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1">
+        <v>7217</v>
+      </c>
+      <c r="E19" s="1">
+        <v>11346</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5399</v>
+      </c>
+      <c r="G19" s="1">
+        <v>12749</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1">
+        <v>50</v>
+      </c>
+      <c r="D20" s="1">
+        <v>23877</v>
+      </c>
+      <c r="E20" s="1">
+        <v>28754</v>
+      </c>
+      <c r="F20" s="1">
+        <v>6466</v>
+      </c>
+      <c r="G20" s="1">
+        <v>43582</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2">
+        <v>100</v>
+      </c>
+      <c r="C21" s="7">
+        <v>100</v>
+      </c>
+      <c r="D21" s="7">
+        <v>42688</v>
+      </c>
+      <c r="E21" s="7">
+        <v>66278</v>
+      </c>
+      <c r="F21" s="7">
+        <v>3652</v>
+      </c>
+      <c r="G21" s="7">
+        <v>68249</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2">
+        <v>600</v>
+      </c>
+      <c r="C22" s="1">
+        <v>600</v>
+      </c>
+      <c r="D22" s="1">
+        <f>SUM(D16:D21)</f>
+        <v>76984</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" ref="E22" si="0">SUM(E16:E21)</f>
+        <v>109580</v>
+      </c>
+      <c r="F22" s="1">
+        <v>170</v>
+      </c>
+      <c r="G22" s="1">
+        <v>138242</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5092</v>
+      </c>
+      <c r="E23" s="1">
+        <v>5092</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5092</v>
+      </c>
+      <c r="G23" s="1">
+        <v>5092</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="2">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>10</v>
+      </c>
+      <c r="D24" s="7">
+        <v>8761</v>
+      </c>
+      <c r="E24" s="7">
+        <v>12287</v>
+      </c>
+      <c r="F24" s="7">
+        <v>2453</v>
+      </c>
+      <c r="G24" s="7">
+        <v>15181</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="2">
+        <v>50</v>
+      </c>
+      <c r="C25" s="7">
+        <v>50</v>
+      </c>
+      <c r="D25" s="7">
+        <v>74775</v>
+      </c>
+      <c r="E25" s="7">
+        <v>90751</v>
+      </c>
+      <c r="F25" s="7">
+        <v>2981</v>
+      </c>
+      <c r="G25" s="7">
+        <v>96592</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="13">
+        <v>100</v>
+      </c>
+      <c r="C26" s="14">
+        <v>100</v>
+      </c>
+      <c r="D26" s="14">
+        <v>153794</v>
+      </c>
+      <c r="E26" s="14">
+        <v>229207</v>
+      </c>
+      <c r="F26" s="14">
+        <v>357</v>
+      </c>
+      <c r="G26" s="14">
+        <v>232427</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="2">
+        <v>600</v>
+      </c>
+      <c r="C27" s="7">
+        <v>600</v>
+      </c>
+      <c r="D27" s="7">
+        <v>227863</v>
+      </c>
+      <c r="E27" s="7">
+        <v>254493</v>
+      </c>
+      <c r="F27" s="7">
+        <v>124819</v>
+      </c>
+      <c r="G27" s="7">
+        <v>241275</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B33"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3202</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3202</v>
+      </c>
+      <c r="F38" s="1">
+        <v>3202</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3202</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="2">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1">
+        <v>10</v>
+      </c>
+      <c r="D39" s="1">
+        <v>5390</v>
+      </c>
+      <c r="E39" s="1">
+        <v>7493</v>
+      </c>
+      <c r="F39" s="1">
+        <v>3583</v>
+      </c>
+      <c r="G39" s="1">
+        <v>7512</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="2">
+        <v>100</v>
+      </c>
+      <c r="C40" s="1">
+        <v>100</v>
+      </c>
+      <c r="D40" s="1">
+        <v>18044</v>
+      </c>
+      <c r="E40" s="1">
+        <v>25895</v>
+      </c>
+      <c r="F40" s="1">
+        <v>5607</v>
+      </c>
+      <c r="G40" s="1">
+        <v>41434</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="2">
+        <v>300</v>
+      </c>
+      <c r="C41" s="1">
+        <v>300</v>
+      </c>
+      <c r="D41" s="1">
+        <v>22953</v>
+      </c>
+      <c r="E41" s="1">
+        <v>46383</v>
+      </c>
+      <c r="F41" s="1">
+        <v>320</v>
+      </c>
+      <c r="G41" s="1">
+        <v>133497</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="2">
+        <v>7646</v>
+      </c>
+      <c r="C42" s="7">
+        <v>600</v>
+      </c>
+      <c r="D42" s="7">
+        <v>22473</v>
+      </c>
+      <c r="E42" s="7">
+        <v>34928</v>
+      </c>
+      <c r="F42" s="7">
+        <v>69</v>
+      </c>
+      <c r="G42" s="7">
+        <v>38113</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>5092</v>
+      </c>
+      <c r="E43" s="1">
+        <v>5092</v>
+      </c>
+      <c r="F43" s="1">
+        <v>5092</v>
+      </c>
+      <c r="G43" s="1">
+        <v>5092</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="2">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1">
+        <v>10</v>
+      </c>
+      <c r="D44" s="1">
+        <v>5593</v>
+      </c>
+      <c r="E44" s="1">
+        <v>6968</v>
+      </c>
+      <c r="F44" s="1">
+        <v>4479</v>
+      </c>
+      <c r="G44" s="1">
+        <v>7544</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="2">
+        <v>100</v>
+      </c>
+      <c r="C45" s="1">
+        <v>100</v>
+      </c>
+      <c r="D45" s="1">
+        <v>21731</v>
+      </c>
+      <c r="E45" s="1">
+        <v>35380</v>
+      </c>
+      <c r="F45" s="1">
+        <v>6006</v>
+      </c>
+      <c r="G45" s="1">
+        <v>84479</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1211</v>
+      </c>
+      <c r="C46" s="1">
+        <v>300</v>
+      </c>
+      <c r="D46" s="1">
+        <v>70995</v>
+      </c>
+      <c r="E46" s="1">
+        <v>125035</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1967</v>
+      </c>
+      <c r="G46" s="1">
+        <v>132086</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="2">
+        <v>8850</v>
+      </c>
+      <c r="C47" s="7">
+        <v>600</v>
+      </c>
+      <c r="D47" s="7">
+        <v>27439</v>
+      </c>
+      <c r="E47" s="7">
+        <v>42180</v>
+      </c>
+      <c r="F47" s="7">
+        <v>204</v>
+      </c>
+      <c r="G47" s="7">
+        <v>166126</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="2">
+        <v>10741</v>
+      </c>
+      <c r="C48" s="7">
+        <v>600</v>
+      </c>
+      <c r="D48" s="7">
+        <v>35179</v>
+      </c>
+      <c r="E48" s="7">
+        <v>67978</v>
+      </c>
+      <c r="F48" s="7">
+        <v>47</v>
+      </c>
+      <c r="G48" s="7">
+        <v>306119</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B49"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B50"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B51"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B52"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <v>960</v>
+      </c>
+      <c r="E56" s="1">
+        <v>960</v>
+      </c>
+      <c r="F56" s="1">
+        <v>960</v>
+      </c>
+      <c r="G56" s="1">
+        <v>960</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="2">
+        <v>10</v>
+      </c>
+      <c r="C57" s="1">
+        <v>10</v>
+      </c>
+      <c r="D57" s="1">
+        <v>5083</v>
+      </c>
+      <c r="E57" s="1">
+        <v>8823</v>
+      </c>
+      <c r="F57" s="1">
+        <v>626</v>
+      </c>
+      <c r="G57" s="1">
+        <v>9025</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I57" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="2">
+        <v>100</v>
+      </c>
+      <c r="C58" s="1">
+        <v>100</v>
+      </c>
+      <c r="D58" s="1">
+        <v>5472</v>
+      </c>
+      <c r="E58" s="1">
+        <v>7932</v>
+      </c>
+      <c r="F58" s="1">
+        <v>433</v>
+      </c>
+      <c r="G58" s="1">
+        <v>13490</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="2">
+        <v>600</v>
+      </c>
+      <c r="C59" s="1">
+        <v>600</v>
+      </c>
+      <c r="D59" s="1">
+        <v>49685</v>
+      </c>
+      <c r="E59" s="1">
+        <v>110294</v>
+      </c>
+      <c r="F59" s="1">
+        <v>170</v>
+      </c>
+      <c r="G59" s="1">
+        <v>138242</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I59" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="2">
+        <v>600</v>
+      </c>
+      <c r="C60" s="1">
+        <v>600</v>
+      </c>
+      <c r="D60" s="1">
+        <v>14828</v>
+      </c>
+      <c r="E60" s="1">
+        <v>26703</v>
+      </c>
+      <c r="F60" s="1">
+        <v>36</v>
+      </c>
+      <c r="G60" s="1">
+        <v>142327</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="2">
+        <v>77345</v>
+      </c>
+      <c r="C61" s="1">
+        <v>600</v>
+      </c>
+      <c r="D61" s="7">
+        <v>21772</v>
+      </c>
+      <c r="E61" s="7">
+        <v>43056</v>
+      </c>
+      <c r="F61" s="7">
+        <v>218</v>
+      </c>
+      <c r="G61" s="7">
+        <v>74704</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="2">
+        <v>100</v>
+      </c>
+      <c r="C69" s="2">
+        <v>10</v>
+      </c>
+      <c r="D69" s="1">
+        <v>18100</v>
+      </c>
+      <c r="E69" s="1">
+        <v>25262</v>
+      </c>
+      <c r="F69" s="1">
+        <v>10083</v>
+      </c>
+      <c r="G69" s="1">
+        <v>27714</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="K69" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" s="2">
+        <v>150</v>
+      </c>
+      <c r="C70" s="2">
+        <v>15</v>
+      </c>
+      <c r="D70" s="1">
+        <v>16721</v>
+      </c>
+      <c r="E70" s="1">
+        <v>23622</v>
+      </c>
+      <c r="F70" s="1">
+        <v>8161</v>
+      </c>
+      <c r="G70" s="1">
+        <v>31324</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I70" s="16">
+        <v>0.31</v>
+      </c>
+      <c r="K70" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="2">
+        <v>20</v>
+      </c>
+      <c r="C71" s="2">
+        <v>20</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2267</v>
+      </c>
+      <c r="E71" s="1">
+        <v>2664</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1593</v>
+      </c>
+      <c r="G71" s="1">
+        <v>5321</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I71" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K71" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="2">
+        <v>62</v>
+      </c>
+      <c r="C72" s="2">
+        <v>15</v>
+      </c>
+      <c r="D72" s="1">
+        <v>119740</v>
+      </c>
+      <c r="E72" s="1">
+        <v>332497</v>
+      </c>
+      <c r="F72" s="1">
+        <v>8161</v>
+      </c>
+      <c r="G72" s="1">
+        <v>377869</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I72" s="16">
+        <v>0.30049999999999999</v>
+      </c>
+      <c r="K72" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="2">
+        <v>10</v>
+      </c>
+      <c r="C73" s="2">
+        <v>10</v>
+      </c>
+      <c r="D73" s="1">
+        <v>43334</v>
+      </c>
+      <c r="E73" s="1">
+        <v>95599</v>
+      </c>
+      <c r="F73" s="1">
+        <v>978</v>
+      </c>
+      <c r="G73" s="1">
+        <v>582006</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I73" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="K73" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K74" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC7C14C-C1B0-4BDB-8973-927CDE18CC17}">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/output/סטטוס בדידים.xlsx
+++ b/output/סטטוס בדידים.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\nofshonitjmeterci\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E607408D-D4AE-4A2C-A9E2-C25AEB749A5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8908E12A-884B-469D-8485-64AEA0421A3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="סטטוס שבועי 11.27.19" sheetId="15" r:id="rId1"/>
     <sheet name="סטטוס שבועי 11.4.19" sheetId="13" r:id="rId2"/>
+    <sheet name="סטטוס הרצות בדידות 1.12" sheetId="17" r:id="rId3"/>
+    <sheet name="גיליון1" sheetId="16" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="38">
   <si>
     <t>בקשה</t>
   </si>
@@ -126,6 +128,29 @@
   <si>
     <t>10 דקות</t>
   </si>
+  <si>
+    <t>ביצוע רכישה</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "No Card has been found for serie = 74. (GetAvailableCardBySerieId) Actual Error :: No available card has been found with SerieID = 74",
+</t>
+  </si>
+  <si>
+    <t>הוצאת מוצר ללקוח</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Any problem with SetShortNumbers. (SetShortCardNumberProcess)
+</t>
+  </si>
+  <si>
+    <t>Timeout expired.  The timeout period elapsed prior t</t>
+  </si>
+  <si>
+    <t>הוצאת ווריאנט ללקוח</t>
+  </si>
+  <si>
+    <t>משך בשניות</t>
+  </si>
 </sst>
 </file>
 
@@ -166,7 +191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -202,11 +227,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -240,6 +276,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1876,7 +1916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC7C14C-C1B0-4BDB-8973-927CDE18CC17}">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
@@ -2922,4 +2962,1410 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F96B67C-FE70-4F36-86D0-FEAC24581004}">
+  <dimension ref="A1:K88"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="72.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1334</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1334</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1334</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1334</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1493</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1576</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1327</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1759</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2267</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2664</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1593</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5321</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>200</v>
+      </c>
+      <c r="C7" s="2">
+        <v>200</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1597</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1836</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1250</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4573</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2303</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2303</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2303</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2303</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5917</v>
+      </c>
+      <c r="E19" s="1">
+        <v>13174</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3491</v>
+      </c>
+      <c r="G19" s="1">
+        <v>13404</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2">
+        <v>100</v>
+      </c>
+      <c r="C20" s="1">
+        <v>100</v>
+      </c>
+      <c r="D20" s="1">
+        <v>23877</v>
+      </c>
+      <c r="E20" s="1">
+        <v>28754</v>
+      </c>
+      <c r="F20" s="1">
+        <v>6466</v>
+      </c>
+      <c r="G20" s="1">
+        <v>43582</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2">
+        <v>200</v>
+      </c>
+      <c r="C21" s="1">
+        <v>200</v>
+      </c>
+      <c r="D21" s="7">
+        <v>39961</v>
+      </c>
+      <c r="E21" s="7">
+        <v>63120</v>
+      </c>
+      <c r="F21" s="7">
+        <v>18124</v>
+      </c>
+      <c r="G21" s="7">
+        <v>145454</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>615</v>
+      </c>
+      <c r="E22" s="1">
+        <v>615</v>
+      </c>
+      <c r="F22" s="1">
+        <v>615</v>
+      </c>
+      <c r="G22" s="1">
+        <v>615</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="16">
+        <v>0</v>
+      </c>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="2">
+        <v>10</v>
+      </c>
+      <c r="C23" s="7">
+        <v>10</v>
+      </c>
+      <c r="D23" s="7">
+        <v>20359</v>
+      </c>
+      <c r="E23" s="7">
+        <v>25176</v>
+      </c>
+      <c r="F23" s="7">
+        <v>3441</v>
+      </c>
+      <c r="G23" s="7">
+        <v>25289</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="2">
+        <v>100</v>
+      </c>
+      <c r="C24" s="7">
+        <v>100</v>
+      </c>
+      <c r="D24" s="7">
+        <v>74775</v>
+      </c>
+      <c r="E24" s="7">
+        <v>90751</v>
+      </c>
+      <c r="F24" s="7">
+        <v>2981</v>
+      </c>
+      <c r="G24" s="7">
+        <v>96592</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="13">
+        <v>200</v>
+      </c>
+      <c r="C25" s="7">
+        <v>200</v>
+      </c>
+      <c r="D25" s="14">
+        <v>246463</v>
+      </c>
+      <c r="E25" s="14">
+        <v>275258</v>
+      </c>
+      <c r="F25" s="14">
+        <v>27100</v>
+      </c>
+      <c r="G25" s="14">
+        <v>285982</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3202</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3202</v>
+      </c>
+      <c r="F36" s="1">
+        <v>3202</v>
+      </c>
+      <c r="G36" s="1">
+        <v>3202</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="2">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1">
+        <v>10</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5390</v>
+      </c>
+      <c r="E37" s="1">
+        <v>7493</v>
+      </c>
+      <c r="F37" s="1">
+        <v>3583</v>
+      </c>
+      <c r="G37" s="1">
+        <v>7512</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="2">
+        <v>100</v>
+      </c>
+      <c r="C38" s="1">
+        <v>100</v>
+      </c>
+      <c r="D38" s="1">
+        <v>39611</v>
+      </c>
+      <c r="E38" s="1">
+        <v>49904</v>
+      </c>
+      <c r="F38" s="1">
+        <v>22302</v>
+      </c>
+      <c r="G38" s="1">
+        <v>53977</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="2">
+        <v>200</v>
+      </c>
+      <c r="C39" s="1">
+        <v>200</v>
+      </c>
+      <c r="D39" s="1">
+        <v>22953</v>
+      </c>
+      <c r="E39" s="1">
+        <v>46383</v>
+      </c>
+      <c r="F39" s="1">
+        <v>320</v>
+      </c>
+      <c r="G39" s="1">
+        <v>133497</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3620</v>
+      </c>
+      <c r="E40" s="1">
+        <v>3620</v>
+      </c>
+      <c r="F40" s="1">
+        <v>3620</v>
+      </c>
+      <c r="G40" s="1">
+        <v>3620</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="2">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1">
+        <v>10</v>
+      </c>
+      <c r="D41" s="1">
+        <v>5593</v>
+      </c>
+      <c r="E41" s="1">
+        <v>6968</v>
+      </c>
+      <c r="F41" s="1">
+        <v>4479</v>
+      </c>
+      <c r="G41" s="1">
+        <v>7544</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="2">
+        <v>100</v>
+      </c>
+      <c r="C42" s="1">
+        <v>100</v>
+      </c>
+      <c r="D42" s="1">
+        <v>135075</v>
+      </c>
+      <c r="E42" s="1">
+        <v>154103</v>
+      </c>
+      <c r="F42" s="1">
+        <v>104662</v>
+      </c>
+      <c r="G42" s="1">
+        <v>166084</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="2">
+        <v>200</v>
+      </c>
+      <c r="C43" s="1">
+        <v>200</v>
+      </c>
+      <c r="D43" s="1">
+        <v>70995</v>
+      </c>
+      <c r="E43" s="1">
+        <v>125035</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1967</v>
+      </c>
+      <c r="G43" s="1">
+        <v>132086</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>743</v>
+      </c>
+      <c r="E51" s="1">
+        <v>743</v>
+      </c>
+      <c r="F51" s="1">
+        <v>743</v>
+      </c>
+      <c r="G51" s="1">
+        <v>743</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" s="16">
+        <v>0</v>
+      </c>
+      <c r="K51" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="2">
+        <v>10</v>
+      </c>
+      <c r="C52" s="1">
+        <v>10</v>
+      </c>
+      <c r="D52" s="1">
+        <v>6519</v>
+      </c>
+      <c r="E52" s="1">
+        <v>11375</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1028</v>
+      </c>
+      <c r="G52" s="1">
+        <v>14898</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="16">
+        <v>0</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="2">
+        <v>100</v>
+      </c>
+      <c r="C53" s="1">
+        <v>100</v>
+      </c>
+      <c r="D53" s="1">
+        <v>79232</v>
+      </c>
+      <c r="E53" s="1">
+        <v>164849</v>
+      </c>
+      <c r="F53" s="1">
+        <v>12916</v>
+      </c>
+      <c r="G53" s="1">
+        <v>178121</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="16">
+        <v>0</v>
+      </c>
+      <c r="K53" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="2">
+        <v>200</v>
+      </c>
+      <c r="C54" s="1">
+        <v>600</v>
+      </c>
+      <c r="D54" s="1">
+        <v>149385</v>
+      </c>
+      <c r="E54" s="1">
+        <v>300239</v>
+      </c>
+      <c r="F54" s="1">
+        <v>13439</v>
+      </c>
+      <c r="G54" s="1">
+        <v>305226</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" s="16">
+        <v>0.11</v>
+      </c>
+      <c r="K54" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>5265</v>
+      </c>
+      <c r="E60" s="1">
+        <v>5265</v>
+      </c>
+      <c r="F60" s="1">
+        <v>5265</v>
+      </c>
+      <c r="G60" s="1">
+        <v>5265</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60" s="16">
+        <v>0</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" s="2">
+        <v>10</v>
+      </c>
+      <c r="C61" s="2">
+        <v>10</v>
+      </c>
+      <c r="D61" s="1">
+        <v>7102</v>
+      </c>
+      <c r="E61" s="1">
+        <v>7642</v>
+      </c>
+      <c r="F61" s="1">
+        <v>5863</v>
+      </c>
+      <c r="G61" s="1">
+        <v>8926</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I61" s="16">
+        <v>1</v>
+      </c>
+      <c r="K61" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="9"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="16"/>
+      <c r="K62" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="9"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="16"/>
+      <c r="K63" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <v>3645</v>
+      </c>
+      <c r="E74" s="1">
+        <v>3645</v>
+      </c>
+      <c r="F74" s="1">
+        <v>3645</v>
+      </c>
+      <c r="G74" s="1">
+        <v>3645</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I74" s="16">
+        <v>0</v>
+      </c>
+      <c r="K74" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="2">
+        <v>10</v>
+      </c>
+      <c r="C75" s="2">
+        <v>10</v>
+      </c>
+      <c r="D75" s="1">
+        <v>2845</v>
+      </c>
+      <c r="E75" s="1">
+        <v>2966</v>
+      </c>
+      <c r="F75" s="1">
+        <v>2542</v>
+      </c>
+      <c r="G75" s="1">
+        <v>3545</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I75" s="16">
+        <v>0</v>
+      </c>
+      <c r="K75" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" s="2">
+        <v>100</v>
+      </c>
+      <c r="C76" s="2">
+        <v>100</v>
+      </c>
+      <c r="D76" s="1">
+        <v>2267</v>
+      </c>
+      <c r="E76" s="1">
+        <v>2664</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1593</v>
+      </c>
+      <c r="G76" s="1">
+        <v>5321</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" s="16">
+        <v>0</v>
+      </c>
+      <c r="K76" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" s="2">
+        <v>200</v>
+      </c>
+      <c r="C77" s="2">
+        <v>200</v>
+      </c>
+      <c r="D77" s="1">
+        <v>6465</v>
+      </c>
+      <c r="E77" s="1">
+        <v>11108</v>
+      </c>
+      <c r="F77" s="1">
+        <v>2536</v>
+      </c>
+      <c r="G77" s="1">
+        <v>66091</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I77" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="K77" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1">
+        <v>2439</v>
+      </c>
+      <c r="E85" s="1">
+        <v>2439</v>
+      </c>
+      <c r="F85" s="1">
+        <v>2439</v>
+      </c>
+      <c r="G85" s="1">
+        <v>2439</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I85" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B86" s="2">
+        <v>10</v>
+      </c>
+      <c r="C86" s="2">
+        <v>10</v>
+      </c>
+      <c r="D86" s="1">
+        <v>6793</v>
+      </c>
+      <c r="E86" s="1">
+        <v>7810</v>
+      </c>
+      <c r="F86" s="1">
+        <v>4406</v>
+      </c>
+      <c r="G86" s="1">
+        <v>7866</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I86" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87" s="2">
+        <v>100</v>
+      </c>
+      <c r="C87" s="2">
+        <v>100</v>
+      </c>
+      <c r="D87" s="1">
+        <v>50221</v>
+      </c>
+      <c r="E87" s="1">
+        <v>64366</v>
+      </c>
+      <c r="F87" s="1">
+        <v>6994</v>
+      </c>
+      <c r="G87" s="1">
+        <v>67335</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I87" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B88" s="2">
+        <v>200</v>
+      </c>
+      <c r="C88" s="2">
+        <v>200</v>
+      </c>
+      <c r="D88" s="1">
+        <v>82414</v>
+      </c>
+      <c r="E88" s="1">
+        <v>111664</v>
+      </c>
+      <c r="F88" s="1">
+        <v>8920</v>
+      </c>
+      <c r="G88" s="1">
+        <v>124339</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I88" s="16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721163ED-69AF-410A-B71C-39B0788CEC85}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/output/סטטוס בדידים.xlsx
+++ b/output/סטטוס בדידים.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\nofshonitjmeterci\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8908E12A-884B-469D-8485-64AEA0421A3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5E348B-BDCE-4E65-BD3D-31BD3B5844AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="סטטוס שבועי 11.27.19" sheetId="15" r:id="rId1"/>
-    <sheet name="סטטוס שבועי 11.4.19" sheetId="13" r:id="rId2"/>
-    <sheet name="סטטוס הרצות בדידות 1.12" sheetId="17" r:id="rId3"/>
-    <sheet name="גיליון1" sheetId="16" r:id="rId4"/>
+    <sheet name="סטטוס הרצות סינונים 3.12" sheetId="18" r:id="rId1"/>
+    <sheet name="סטטוס הרצות בדידות 1.12" sheetId="17" r:id="rId2"/>
+    <sheet name="סטטוס שבועי 11.27.19" sheetId="15" r:id="rId3"/>
+    <sheet name="סטטוס שבועי 11.4.19" sheetId="13" r:id="rId4"/>
+    <sheet name="גיליון1" sheetId="16" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="38">
   <si>
     <t>בקשה</t>
   </si>
@@ -559,6 +560,1887 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAA2AF3-B617-4790-A41A-A10BF3F2F45D}">
+  <dimension ref="A1:I78"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="72.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1334</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1334</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1334</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1334</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1493</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1576</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1327</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1759</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2267</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2664</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1593</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5321</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>200</v>
+      </c>
+      <c r="C7" s="2">
+        <v>200</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1597</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1836</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1250</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4573</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>743</v>
+      </c>
+      <c r="E21" s="1">
+        <v>743</v>
+      </c>
+      <c r="F21" s="1">
+        <v>743</v>
+      </c>
+      <c r="G21" s="1">
+        <v>743</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1">
+        <v>6519</v>
+      </c>
+      <c r="E22" s="1">
+        <v>11375</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1028</v>
+      </c>
+      <c r="G22" s="1">
+        <v>14898</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="2">
+        <v>100</v>
+      </c>
+      <c r="C23" s="1">
+        <v>100</v>
+      </c>
+      <c r="D23" s="1">
+        <v>11378</v>
+      </c>
+      <c r="E23" s="1">
+        <v>22226</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1024</v>
+      </c>
+      <c r="G23" s="1">
+        <v>23704</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="2">
+        <v>200</v>
+      </c>
+      <c r="C24" s="1">
+        <v>200</v>
+      </c>
+      <c r="D24" s="1">
+        <v>19135</v>
+      </c>
+      <c r="E24" s="1">
+        <v>32037</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1029</v>
+      </c>
+      <c r="G24" s="1">
+        <v>36859</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63"/>
+    </row>
+    <row r="68" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F96B67C-FE70-4F36-86D0-FEAC24581004}">
+  <dimension ref="A1:K88"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="72.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1334</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1334</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1334</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1334</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1493</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1576</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1327</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1759</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2267</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2664</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1593</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5321</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>200</v>
+      </c>
+      <c r="C7" s="2">
+        <v>200</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1597</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1836</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1250</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4573</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2303</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2303</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2303</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2303</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5917</v>
+      </c>
+      <c r="E19" s="1">
+        <v>13174</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3491</v>
+      </c>
+      <c r="G19" s="1">
+        <v>13404</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2">
+        <v>100</v>
+      </c>
+      <c r="C20" s="1">
+        <v>100</v>
+      </c>
+      <c r="D20" s="1">
+        <v>23877</v>
+      </c>
+      <c r="E20" s="1">
+        <v>28754</v>
+      </c>
+      <c r="F20" s="1">
+        <v>6466</v>
+      </c>
+      <c r="G20" s="1">
+        <v>43582</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2">
+        <v>200</v>
+      </c>
+      <c r="C21" s="1">
+        <v>200</v>
+      </c>
+      <c r="D21" s="7">
+        <v>39961</v>
+      </c>
+      <c r="E21" s="7">
+        <v>63120</v>
+      </c>
+      <c r="F21" s="7">
+        <v>18124</v>
+      </c>
+      <c r="G21" s="7">
+        <v>145454</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>615</v>
+      </c>
+      <c r="E22" s="1">
+        <v>615</v>
+      </c>
+      <c r="F22" s="1">
+        <v>615</v>
+      </c>
+      <c r="G22" s="1">
+        <v>615</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="16">
+        <v>0</v>
+      </c>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="2">
+        <v>10</v>
+      </c>
+      <c r="C23" s="7">
+        <v>10</v>
+      </c>
+      <c r="D23" s="7">
+        <v>20359</v>
+      </c>
+      <c r="E23" s="7">
+        <v>25176</v>
+      </c>
+      <c r="F23" s="7">
+        <v>3441</v>
+      </c>
+      <c r="G23" s="7">
+        <v>25289</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="2">
+        <v>100</v>
+      </c>
+      <c r="C24" s="7">
+        <v>100</v>
+      </c>
+      <c r="D24" s="7">
+        <v>74775</v>
+      </c>
+      <c r="E24" s="7">
+        <v>90751</v>
+      </c>
+      <c r="F24" s="7">
+        <v>2981</v>
+      </c>
+      <c r="G24" s="7">
+        <v>96592</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="13">
+        <v>200</v>
+      </c>
+      <c r="C25" s="7">
+        <v>200</v>
+      </c>
+      <c r="D25" s="14">
+        <v>246463</v>
+      </c>
+      <c r="E25" s="14">
+        <v>275258</v>
+      </c>
+      <c r="F25" s="14">
+        <v>27100</v>
+      </c>
+      <c r="G25" s="14">
+        <v>285982</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3202</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3202</v>
+      </c>
+      <c r="F36" s="1">
+        <v>3202</v>
+      </c>
+      <c r="G36" s="1">
+        <v>3202</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="2">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1">
+        <v>10</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5390</v>
+      </c>
+      <c r="E37" s="1">
+        <v>7493</v>
+      </c>
+      <c r="F37" s="1">
+        <v>3583</v>
+      </c>
+      <c r="G37" s="1">
+        <v>7512</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="2">
+        <v>100</v>
+      </c>
+      <c r="C38" s="1">
+        <v>100</v>
+      </c>
+      <c r="D38" s="1">
+        <v>39611</v>
+      </c>
+      <c r="E38" s="1">
+        <v>49904</v>
+      </c>
+      <c r="F38" s="1">
+        <v>22302</v>
+      </c>
+      <c r="G38" s="1">
+        <v>53977</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="2">
+        <v>200</v>
+      </c>
+      <c r="C39" s="1">
+        <v>200</v>
+      </c>
+      <c r="D39" s="1">
+        <v>22953</v>
+      </c>
+      <c r="E39" s="1">
+        <v>46383</v>
+      </c>
+      <c r="F39" s="1">
+        <v>320</v>
+      </c>
+      <c r="G39" s="1">
+        <v>133497</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3620</v>
+      </c>
+      <c r="E40" s="1">
+        <v>3620</v>
+      </c>
+      <c r="F40" s="1">
+        <v>3620</v>
+      </c>
+      <c r="G40" s="1">
+        <v>3620</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="2">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1">
+        <v>10</v>
+      </c>
+      <c r="D41" s="1">
+        <v>5593</v>
+      </c>
+      <c r="E41" s="1">
+        <v>6968</v>
+      </c>
+      <c r="F41" s="1">
+        <v>4479</v>
+      </c>
+      <c r="G41" s="1">
+        <v>7544</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="2">
+        <v>100</v>
+      </c>
+      <c r="C42" s="1">
+        <v>100</v>
+      </c>
+      <c r="D42" s="1">
+        <v>135075</v>
+      </c>
+      <c r="E42" s="1">
+        <v>154103</v>
+      </c>
+      <c r="F42" s="1">
+        <v>104662</v>
+      </c>
+      <c r="G42" s="1">
+        <v>166084</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="2">
+        <v>200</v>
+      </c>
+      <c r="C43" s="1">
+        <v>200</v>
+      </c>
+      <c r="D43" s="1">
+        <v>70995</v>
+      </c>
+      <c r="E43" s="1">
+        <v>125035</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1967</v>
+      </c>
+      <c r="G43" s="1">
+        <v>132086</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>743</v>
+      </c>
+      <c r="E51" s="1">
+        <v>743</v>
+      </c>
+      <c r="F51" s="1">
+        <v>743</v>
+      </c>
+      <c r="G51" s="1">
+        <v>743</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" s="16">
+        <v>0</v>
+      </c>
+      <c r="K51" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="2">
+        <v>10</v>
+      </c>
+      <c r="C52" s="1">
+        <v>10</v>
+      </c>
+      <c r="D52" s="1">
+        <v>6519</v>
+      </c>
+      <c r="E52" s="1">
+        <v>11375</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1028</v>
+      </c>
+      <c r="G52" s="1">
+        <v>14898</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="16">
+        <v>0</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="2">
+        <v>100</v>
+      </c>
+      <c r="C53" s="1">
+        <v>100</v>
+      </c>
+      <c r="D53" s="1">
+        <v>79232</v>
+      </c>
+      <c r="E53" s="1">
+        <v>164849</v>
+      </c>
+      <c r="F53" s="1">
+        <v>12916</v>
+      </c>
+      <c r="G53" s="1">
+        <v>178121</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="16">
+        <v>0</v>
+      </c>
+      <c r="K53" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="2">
+        <v>200</v>
+      </c>
+      <c r="C54" s="1">
+        <v>600</v>
+      </c>
+      <c r="D54" s="1">
+        <v>149385</v>
+      </c>
+      <c r="E54" s="1">
+        <v>300239</v>
+      </c>
+      <c r="F54" s="1">
+        <v>13439</v>
+      </c>
+      <c r="G54" s="1">
+        <v>305226</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" s="16">
+        <v>0.11</v>
+      </c>
+      <c r="K54" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>5265</v>
+      </c>
+      <c r="E60" s="1">
+        <v>5265</v>
+      </c>
+      <c r="F60" s="1">
+        <v>5265</v>
+      </c>
+      <c r="G60" s="1">
+        <v>5265</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60" s="16">
+        <v>0</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" s="2">
+        <v>10</v>
+      </c>
+      <c r="C61" s="2">
+        <v>10</v>
+      </c>
+      <c r="D61" s="1">
+        <v>7102</v>
+      </c>
+      <c r="E61" s="1">
+        <v>7642</v>
+      </c>
+      <c r="F61" s="1">
+        <v>5863</v>
+      </c>
+      <c r="G61" s="1">
+        <v>8926</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I61" s="16">
+        <v>1</v>
+      </c>
+      <c r="K61" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="9"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="16"/>
+      <c r="K62" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="9"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="16"/>
+      <c r="K63" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <v>3645</v>
+      </c>
+      <c r="E74" s="1">
+        <v>3645</v>
+      </c>
+      <c r="F74" s="1">
+        <v>3645</v>
+      </c>
+      <c r="G74" s="1">
+        <v>3645</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I74" s="16">
+        <v>0</v>
+      </c>
+      <c r="K74" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="2">
+        <v>10</v>
+      </c>
+      <c r="C75" s="2">
+        <v>10</v>
+      </c>
+      <c r="D75" s="1">
+        <v>2845</v>
+      </c>
+      <c r="E75" s="1">
+        <v>2966</v>
+      </c>
+      <c r="F75" s="1">
+        <v>2542</v>
+      </c>
+      <c r="G75" s="1">
+        <v>3545</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I75" s="16">
+        <v>0</v>
+      </c>
+      <c r="K75" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" s="2">
+        <v>100</v>
+      </c>
+      <c r="C76" s="2">
+        <v>100</v>
+      </c>
+      <c r="D76" s="1">
+        <v>2267</v>
+      </c>
+      <c r="E76" s="1">
+        <v>2664</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1593</v>
+      </c>
+      <c r="G76" s="1">
+        <v>5321</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" s="16">
+        <v>0</v>
+      </c>
+      <c r="K76" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" s="2">
+        <v>200</v>
+      </c>
+      <c r="C77" s="2">
+        <v>200</v>
+      </c>
+      <c r="D77" s="1">
+        <v>6465</v>
+      </c>
+      <c r="E77" s="1">
+        <v>11108</v>
+      </c>
+      <c r="F77" s="1">
+        <v>2536</v>
+      </c>
+      <c r="G77" s="1">
+        <v>66091</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I77" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="K77" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1">
+        <v>2439</v>
+      </c>
+      <c r="E85" s="1">
+        <v>2439</v>
+      </c>
+      <c r="F85" s="1">
+        <v>2439</v>
+      </c>
+      <c r="G85" s="1">
+        <v>2439</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I85" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B86" s="2">
+        <v>10</v>
+      </c>
+      <c r="C86" s="2">
+        <v>10</v>
+      </c>
+      <c r="D86" s="1">
+        <v>6793</v>
+      </c>
+      <c r="E86" s="1">
+        <v>7810</v>
+      </c>
+      <c r="F86" s="1">
+        <v>4406</v>
+      </c>
+      <c r="G86" s="1">
+        <v>7866</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I86" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87" s="2">
+        <v>100</v>
+      </c>
+      <c r="C87" s="2">
+        <v>100</v>
+      </c>
+      <c r="D87" s="1">
+        <v>50221</v>
+      </c>
+      <c r="E87" s="1">
+        <v>64366</v>
+      </c>
+      <c r="F87" s="1">
+        <v>6994</v>
+      </c>
+      <c r="G87" s="1">
+        <v>67335</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I87" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B88" s="2">
+        <v>200</v>
+      </c>
+      <c r="C88" s="2">
+        <v>200</v>
+      </c>
+      <c r="D88" s="1">
+        <v>82414</v>
+      </c>
+      <c r="E88" s="1">
+        <v>111664</v>
+      </c>
+      <c r="F88" s="1">
+        <v>8920</v>
+      </c>
+      <c r="G88" s="1">
+        <v>124339</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I88" s="16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977E8616-E52F-490D-8751-E38965C08A3F}">
   <dimension ref="A1:K74"/>
   <sheetViews>
@@ -1912,7 +3794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC7C14C-C1B0-4BDB-8973-927CDE18CC17}">
   <dimension ref="A1:I62"/>
   <sheetViews>
@@ -2964,1401 +4846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F96B67C-FE70-4F36-86D0-FEAC24581004}">
-  <dimension ref="A1:K88"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="44" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="72.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1334</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1334</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1334</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1334</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1493</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1576</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1327</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1759</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2">
-        <v>100</v>
-      </c>
-      <c r="C6" s="2">
-        <v>100</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2267</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2664</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1593</v>
-      </c>
-      <c r="G6" s="1">
-        <v>5321</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2">
-        <v>200</v>
-      </c>
-      <c r="C7" s="2">
-        <v>200</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1597</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1836</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1250</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4573</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2303</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2303</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2303</v>
-      </c>
-      <c r="G18" s="1">
-        <v>2303</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="2">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1">
-        <v>10</v>
-      </c>
-      <c r="D19" s="1">
-        <v>5917</v>
-      </c>
-      <c r="E19" s="1">
-        <v>13174</v>
-      </c>
-      <c r="F19" s="1">
-        <v>3491</v>
-      </c>
-      <c r="G19" s="1">
-        <v>13404</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="2">
-        <v>100</v>
-      </c>
-      <c r="C20" s="1">
-        <v>100</v>
-      </c>
-      <c r="D20" s="1">
-        <v>23877</v>
-      </c>
-      <c r="E20" s="1">
-        <v>28754</v>
-      </c>
-      <c r="F20" s="1">
-        <v>6466</v>
-      </c>
-      <c r="G20" s="1">
-        <v>43582</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2">
-        <v>200</v>
-      </c>
-      <c r="C21" s="1">
-        <v>200</v>
-      </c>
-      <c r="D21" s="7">
-        <v>39961</v>
-      </c>
-      <c r="E21" s="7">
-        <v>63120</v>
-      </c>
-      <c r="F21" s="7">
-        <v>18124</v>
-      </c>
-      <c r="G21" s="7">
-        <v>145454</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <v>615</v>
-      </c>
-      <c r="E22" s="1">
-        <v>615</v>
-      </c>
-      <c r="F22" s="1">
-        <v>615</v>
-      </c>
-      <c r="G22" s="1">
-        <v>615</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="16">
-        <v>0</v>
-      </c>
-      <c r="J22" s="18"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="2">
-        <v>10</v>
-      </c>
-      <c r="C23" s="7">
-        <v>10</v>
-      </c>
-      <c r="D23" s="7">
-        <v>20359</v>
-      </c>
-      <c r="E23" s="7">
-        <v>25176</v>
-      </c>
-      <c r="F23" s="7">
-        <v>3441</v>
-      </c>
-      <c r="G23" s="7">
-        <v>25289</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="2">
-        <v>100</v>
-      </c>
-      <c r="C24" s="7">
-        <v>100</v>
-      </c>
-      <c r="D24" s="7">
-        <v>74775</v>
-      </c>
-      <c r="E24" s="7">
-        <v>90751</v>
-      </c>
-      <c r="F24" s="7">
-        <v>2981</v>
-      </c>
-      <c r="G24" s="7">
-        <v>96592</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="13">
-        <v>200</v>
-      </c>
-      <c r="C25" s="7">
-        <v>200</v>
-      </c>
-      <c r="D25" s="14">
-        <v>246463</v>
-      </c>
-      <c r="E25" s="14">
-        <v>275258</v>
-      </c>
-      <c r="F25" s="14">
-        <v>27100</v>
-      </c>
-      <c r="G25" s="14">
-        <v>285982</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B26"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B27"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B29"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B30"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B31"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B32"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="2">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1">
-        <v>3202</v>
-      </c>
-      <c r="E36" s="1">
-        <v>3202</v>
-      </c>
-      <c r="F36" s="1">
-        <v>3202</v>
-      </c>
-      <c r="G36" s="1">
-        <v>3202</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="2">
-        <v>10</v>
-      </c>
-      <c r="C37" s="1">
-        <v>10</v>
-      </c>
-      <c r="D37" s="1">
-        <v>5390</v>
-      </c>
-      <c r="E37" s="1">
-        <v>7493</v>
-      </c>
-      <c r="F37" s="1">
-        <v>3583</v>
-      </c>
-      <c r="G37" s="1">
-        <v>7512</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="2">
-        <v>100</v>
-      </c>
-      <c r="C38" s="1">
-        <v>100</v>
-      </c>
-      <c r="D38" s="1">
-        <v>39611</v>
-      </c>
-      <c r="E38" s="1">
-        <v>49904</v>
-      </c>
-      <c r="F38" s="1">
-        <v>22302</v>
-      </c>
-      <c r="G38" s="1">
-        <v>53977</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="2">
-        <v>200</v>
-      </c>
-      <c r="C39" s="1">
-        <v>200</v>
-      </c>
-      <c r="D39" s="1">
-        <v>22953</v>
-      </c>
-      <c r="E39" s="1">
-        <v>46383</v>
-      </c>
-      <c r="F39" s="1">
-        <v>320</v>
-      </c>
-      <c r="G39" s="1">
-        <v>133497</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="2">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1">
-        <v>3620</v>
-      </c>
-      <c r="E40" s="1">
-        <v>3620</v>
-      </c>
-      <c r="F40" s="1">
-        <v>3620</v>
-      </c>
-      <c r="G40" s="1">
-        <v>3620</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="2">
-        <v>10</v>
-      </c>
-      <c r="C41" s="1">
-        <v>10</v>
-      </c>
-      <c r="D41" s="1">
-        <v>5593</v>
-      </c>
-      <c r="E41" s="1">
-        <v>6968</v>
-      </c>
-      <c r="F41" s="1">
-        <v>4479</v>
-      </c>
-      <c r="G41" s="1">
-        <v>7544</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="2">
-        <v>100</v>
-      </c>
-      <c r="C42" s="1">
-        <v>100</v>
-      </c>
-      <c r="D42" s="1">
-        <v>135075</v>
-      </c>
-      <c r="E42" s="1">
-        <v>154103</v>
-      </c>
-      <c r="F42" s="1">
-        <v>104662</v>
-      </c>
-      <c r="G42" s="1">
-        <v>166084</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="2">
-        <v>200</v>
-      </c>
-      <c r="C43" s="1">
-        <v>200</v>
-      </c>
-      <c r="D43" s="1">
-        <v>70995</v>
-      </c>
-      <c r="E43" s="1">
-        <v>125035</v>
-      </c>
-      <c r="F43" s="1">
-        <v>1967</v>
-      </c>
-      <c r="G43" s="1">
-        <v>132086</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="2">
-        <v>1</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1">
-        <v>743</v>
-      </c>
-      <c r="E51" s="1">
-        <v>743</v>
-      </c>
-      <c r="F51" s="1">
-        <v>743</v>
-      </c>
-      <c r="G51" s="1">
-        <v>743</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I51" s="16">
-        <v>0</v>
-      </c>
-      <c r="K51" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="2">
-        <v>10</v>
-      </c>
-      <c r="C52" s="1">
-        <v>10</v>
-      </c>
-      <c r="D52" s="1">
-        <v>6519</v>
-      </c>
-      <c r="E52" s="1">
-        <v>11375</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1028</v>
-      </c>
-      <c r="G52" s="1">
-        <v>14898</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I52" s="16">
-        <v>0</v>
-      </c>
-      <c r="K52" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" s="2">
-        <v>100</v>
-      </c>
-      <c r="C53" s="1">
-        <v>100</v>
-      </c>
-      <c r="D53" s="1">
-        <v>79232</v>
-      </c>
-      <c r="E53" s="1">
-        <v>164849</v>
-      </c>
-      <c r="F53" s="1">
-        <v>12916</v>
-      </c>
-      <c r="G53" s="1">
-        <v>178121</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I53" s="16">
-        <v>0</v>
-      </c>
-      <c r="K53" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" s="2">
-        <v>200</v>
-      </c>
-      <c r="C54" s="1">
-        <v>600</v>
-      </c>
-      <c r="D54" s="1">
-        <v>149385</v>
-      </c>
-      <c r="E54" s="1">
-        <v>300239</v>
-      </c>
-      <c r="F54" s="1">
-        <v>13439</v>
-      </c>
-      <c r="G54" s="1">
-        <v>305226</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I54" s="16">
-        <v>0.11</v>
-      </c>
-      <c r="K54" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K59" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B60" s="2">
-        <v>1</v>
-      </c>
-      <c r="C60" s="2">
-        <v>1</v>
-      </c>
-      <c r="D60" s="1">
-        <v>5265</v>
-      </c>
-      <c r="E60" s="1">
-        <v>5265</v>
-      </c>
-      <c r="F60" s="1">
-        <v>5265</v>
-      </c>
-      <c r="G60" s="1">
-        <v>5265</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I60" s="16">
-        <v>0</v>
-      </c>
-      <c r="K60" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B61" s="2">
-        <v>10</v>
-      </c>
-      <c r="C61" s="2">
-        <v>10</v>
-      </c>
-      <c r="D61" s="1">
-        <v>7102</v>
-      </c>
-      <c r="E61" s="1">
-        <v>7642</v>
-      </c>
-      <c r="F61" s="1">
-        <v>5863</v>
-      </c>
-      <c r="G61" s="1">
-        <v>8926</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I61" s="16">
-        <v>1</v>
-      </c>
-      <c r="K61" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="16"/>
-      <c r="K62" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="16"/>
-      <c r="K63" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K73" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B74" s="2">
-        <v>1</v>
-      </c>
-      <c r="C74" s="2">
-        <v>1</v>
-      </c>
-      <c r="D74" s="1">
-        <v>3645</v>
-      </c>
-      <c r="E74" s="1">
-        <v>3645</v>
-      </c>
-      <c r="F74" s="1">
-        <v>3645</v>
-      </c>
-      <c r="G74" s="1">
-        <v>3645</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I74" s="16">
-        <v>0</v>
-      </c>
-      <c r="K74" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B75" s="2">
-        <v>10</v>
-      </c>
-      <c r="C75" s="2">
-        <v>10</v>
-      </c>
-      <c r="D75" s="1">
-        <v>2845</v>
-      </c>
-      <c r="E75" s="1">
-        <v>2966</v>
-      </c>
-      <c r="F75" s="1">
-        <v>2542</v>
-      </c>
-      <c r="G75" s="1">
-        <v>3545</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I75" s="16">
-        <v>0</v>
-      </c>
-      <c r="K75" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B76" s="2">
-        <v>100</v>
-      </c>
-      <c r="C76" s="2">
-        <v>100</v>
-      </c>
-      <c r="D76" s="1">
-        <v>2267</v>
-      </c>
-      <c r="E76" s="1">
-        <v>2664</v>
-      </c>
-      <c r="F76" s="1">
-        <v>1593</v>
-      </c>
-      <c r="G76" s="1">
-        <v>5321</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I76" s="16">
-        <v>0</v>
-      </c>
-      <c r="K76" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B77" s="2">
-        <v>200</v>
-      </c>
-      <c r="C77" s="2">
-        <v>200</v>
-      </c>
-      <c r="D77" s="1">
-        <v>6465</v>
-      </c>
-      <c r="E77" s="1">
-        <v>11108</v>
-      </c>
-      <c r="F77" s="1">
-        <v>2536</v>
-      </c>
-      <c r="G77" s="1">
-        <v>66091</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I77" s="16">
-        <v>0.18</v>
-      </c>
-      <c r="K77" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I84" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B85" s="2">
-        <v>1</v>
-      </c>
-      <c r="C85" s="2">
-        <v>1</v>
-      </c>
-      <c r="D85" s="1">
-        <v>2439</v>
-      </c>
-      <c r="E85" s="1">
-        <v>2439</v>
-      </c>
-      <c r="F85" s="1">
-        <v>2439</v>
-      </c>
-      <c r="G85" s="1">
-        <v>2439</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I85" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B86" s="2">
-        <v>10</v>
-      </c>
-      <c r="C86" s="2">
-        <v>10</v>
-      </c>
-      <c r="D86" s="1">
-        <v>6793</v>
-      </c>
-      <c r="E86" s="1">
-        <v>7810</v>
-      </c>
-      <c r="F86" s="1">
-        <v>4406</v>
-      </c>
-      <c r="G86" s="1">
-        <v>7866</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I86" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B87" s="2">
-        <v>100</v>
-      </c>
-      <c r="C87" s="2">
-        <v>100</v>
-      </c>
-      <c r="D87" s="1">
-        <v>50221</v>
-      </c>
-      <c r="E87" s="1">
-        <v>64366</v>
-      </c>
-      <c r="F87" s="1">
-        <v>6994</v>
-      </c>
-      <c r="G87" s="1">
-        <v>67335</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I87" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B88" s="2">
-        <v>200</v>
-      </c>
-      <c r="C88" s="2">
-        <v>200</v>
-      </c>
-      <c r="D88" s="1">
-        <v>82414</v>
-      </c>
-      <c r="E88" s="1">
-        <v>111664</v>
-      </c>
-      <c r="F88" s="1">
-        <v>8920</v>
-      </c>
-      <c r="G88" s="1">
-        <v>124339</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I88" s="16">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721163ED-69AF-410A-B71C-39B0788CEC85}">
   <dimension ref="A1"/>
   <sheetViews>
